--- a/testdata/testSamplesSequencing.xlsx
+++ b/testdata/testSamplesSequencing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinszyska/Sites/Bio/panelseq/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328F39DD-17F8-5B49-9A0D-4D620BEBF79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C336970-4FC2-FD49-926A-526A8FADF4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="800" windowWidth="20040" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="-30920" windowWidth="28540" windowHeight="24140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
     <sheet name="Libraries" sheetId="2" r:id="rId2"/>
+    <sheet name="LibraryPooling" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="162">
   <si>
     <t>Targeted DNA Seq</t>
   </si>
@@ -286,13 +287,253 @@
   </si>
   <si>
     <t>SampleInfo</t>
+  </si>
+  <si>
+    <t>Concentration table for diluting sequencing libraries to an (possibly) equimolar pool</t>
+  </si>
+  <si>
+    <t>single library approach</t>
+  </si>
+  <si>
+    <t>Approach A:</t>
+  </si>
+  <si>
+    <t>Predilute every library to 4nM and pool with equal volumes (or using custom ratios)</t>
+  </si>
+  <si>
+    <t>predilution vol</t>
+  </si>
+  <si>
+    <t>µl</t>
+  </si>
+  <si>
+    <t>Approach B:</t>
+  </si>
+  <si>
+    <t>Pool samples directly to target concentration (for different molarities of samples, change the "ratio in pool field)</t>
+  </si>
+  <si>
+    <t>predilution conc</t>
+  </si>
+  <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>Predilution</t>
+  </si>
+  <si>
+    <t>direct Pool</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>i7-barcodes</t>
+  </si>
+  <si>
+    <t>i5-Index</t>
+  </si>
+  <si>
+    <t>i5-barcodes</t>
+  </si>
+  <si>
+    <t>LibConc [ng/µl]</t>
+  </si>
+  <si>
+    <t>FragSize [bp]</t>
+  </si>
+  <si>
+    <t>conc [nM]</t>
+  </si>
+  <si>
+    <t>ratio in pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µl  for 4nM </t>
+  </si>
+  <si>
+    <t>µl to stock</t>
+  </si>
+  <si>
+    <t>pooled approach</t>
+  </si>
+  <si>
+    <t>diluted library</t>
+  </si>
+  <si>
+    <t>Agilent</t>
+  </si>
+  <si>
+    <t>add H20</t>
+  </si>
+  <si>
+    <t>pooled library</t>
+  </si>
+  <si>
+    <t>per sample unit</t>
+  </si>
+  <si>
+    <t>bp average size</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>ng/µl</t>
+  </si>
+  <si>
+    <t>final volume</t>
+  </si>
+  <si>
+    <t>18T</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGGAACAA </t>
+  </si>
+  <si>
+    <t>18H</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGGTGGTA </t>
+  </si>
+  <si>
+    <t>UDI1</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>UDI 1 P7 index R</t>
+  </si>
+  <si>
+    <t>TAACGATT</t>
+  </si>
+  <si>
+    <t>UDI 1 P5 index F V2</t>
+  </si>
+  <si>
+    <t>AATAACGT</t>
+  </si>
+  <si>
+    <t>UDI2</t>
+  </si>
+  <si>
+    <t>UDI 2 P7 index R</t>
+  </si>
+  <si>
+    <t>ATGTAGAC</t>
+  </si>
+  <si>
+    <t>UDI 2 P5 index F V2</t>
+  </si>
+  <si>
+    <t>TTCTTGAA</t>
+  </si>
+  <si>
+    <t>UDI3</t>
+  </si>
+  <si>
+    <t>UDI 3 P7 index R</t>
+  </si>
+  <si>
+    <t>GAGCAGCG</t>
+  </si>
+  <si>
+    <t>UDI 3 P5 index F V2</t>
+  </si>
+  <si>
+    <t>GGCAGATC</t>
+  </si>
+  <si>
+    <t>UDI4</t>
+  </si>
+  <si>
+    <t>UDI 4 P7 index R</t>
+  </si>
+  <si>
+    <t>TGTTGATC</t>
+  </si>
+  <si>
+    <t>UDI 4 P5 index F V2</t>
+  </si>
+  <si>
+    <t>CTATGTTA</t>
+  </si>
+  <si>
+    <t>UDI5</t>
+  </si>
+  <si>
+    <t>UDI 5 P7 index R</t>
+  </si>
+  <si>
+    <t>GTGAATAT</t>
+  </si>
+  <si>
+    <t>CTAGCGCT</t>
+  </si>
+  <si>
+    <t>UDI6</t>
+  </si>
+  <si>
+    <t>UDI 6 P7 index R</t>
+  </si>
+  <si>
+    <t>ACAGGCGC</t>
+  </si>
+  <si>
+    <t>UDI 5 P5 index F V2</t>
+  </si>
+  <si>
+    <t>TCGATATC</t>
+  </si>
+  <si>
+    <t>UDI7</t>
+  </si>
+  <si>
+    <t>UDI 7 P7 index R</t>
+  </si>
+  <si>
+    <t>CATAGAGT</t>
+  </si>
+  <si>
+    <t>UDI 6 P5 index F V2</t>
+  </si>
+  <si>
+    <t>CGTCTGCG</t>
+  </si>
+  <si>
+    <t>UDI8</t>
+  </si>
+  <si>
+    <t>UDI 8 P7 index R</t>
+  </si>
+  <si>
+    <t>TCTCTACT</t>
+  </si>
+  <si>
+    <t>UDI 7 P5 index F V2</t>
+  </si>
+  <si>
+    <t>CGCTATGT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,8 +611,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0066CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +713,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -642,12 +972,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,6 +1183,206 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1087,7 +1701,7 @@
   <dimension ref="A1:E1329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5802,27 +6416,1674 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="636018d9-4a34-4186-8868-93b3d1d2bbfb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="509be607-5cb9-4ff6-8f2b-a49830fd41ed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2B5AD8-DE9D-C544-B645-30A53683D8EA}">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" spans="1:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
+    </row>
+    <row r="3" spans="1:20" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="58">
+        <v>100</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="55"/>
+    </row>
+    <row r="4" spans="1:20" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="63">
+        <v>4</v>
+      </c>
+      <c r="O4" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="55"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="55"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="65"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="55"/>
+    </row>
+    <row r="7" spans="1:20" s="124" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="87"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" s="87"/>
+      <c r="T7" s="77"/>
+    </row>
+    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="69">
+        <v>12.2</v>
+      </c>
+      <c r="H8" s="71">
+        <v>379</v>
+      </c>
+      <c r="I8" s="72">
+        <v>48.8</v>
+      </c>
+      <c r="J8" s="72">
+        <v>1</v>
+      </c>
+      <c r="K8" s="73">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L8" s="56">
+        <v>4.8</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="75">
+        <v>23.8</v>
+      </c>
+      <c r="O8" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="75">
+        <v>180.2</v>
+      </c>
+      <c r="T8" s="81"/>
+    </row>
+    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="83">
+        <v>10.5</v>
+      </c>
+      <c r="H9" s="85">
+        <v>360</v>
+      </c>
+      <c r="I9" s="56">
+        <v>44.2</v>
+      </c>
+      <c r="J9" s="72">
+        <v>1</v>
+      </c>
+      <c r="K9" s="73">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="L9" s="56">
+        <v>5.3</v>
+      </c>
+      <c r="M9" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="87">
+        <v>2.35</v>
+      </c>
+      <c r="O9" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="89">
+        <v>347</v>
+      </c>
+      <c r="Q9" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="91">
+        <v>19.8</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="83">
+        <v>12.9</v>
+      </c>
+      <c r="H10" s="85">
+        <v>370</v>
+      </c>
+      <c r="I10" s="56">
+        <v>52.8</v>
+      </c>
+      <c r="J10" s="72">
+        <v>1</v>
+      </c>
+      <c r="K10" s="73">
+        <v>7.57</v>
+      </c>
+      <c r="L10" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="M10" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="92">
+        <v>40</v>
+      </c>
+      <c r="O10" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="93">
+        <v>9.26</v>
+      </c>
+      <c r="Q10" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" s="94">
+        <v>4</v>
+      </c>
+      <c r="T10" s="88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="83">
+        <v>10.9</v>
+      </c>
+      <c r="H11" s="85">
+        <v>370</v>
+      </c>
+      <c r="I11" s="56">
+        <v>44.6</v>
+      </c>
+      <c r="J11" s="72">
+        <v>1</v>
+      </c>
+      <c r="K11" s="73">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="L11" s="56">
+        <v>5.3</v>
+      </c>
+      <c r="M11" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="96">
+        <v>100</v>
+      </c>
+      <c r="O11" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="98">
+        <v>40.4</v>
+      </c>
+      <c r="Q11" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" s="101">
+        <v>200</v>
+      </c>
+      <c r="T11" s="97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="83">
+        <v>14.7</v>
+      </c>
+      <c r="H12" s="85">
+        <v>368</v>
+      </c>
+      <c r="I12" s="56">
+        <v>60.5</v>
+      </c>
+      <c r="J12" s="72">
+        <v>1</v>
+      </c>
+      <c r="K12" s="73">
+        <v>6.61</v>
+      </c>
+      <c r="L12" s="56">
+        <v>3.9</v>
+      </c>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="55"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="83">
+        <v>10.3</v>
+      </c>
+      <c r="H13" s="85">
+        <v>361</v>
+      </c>
+      <c r="I13" s="56">
+        <v>43.2</v>
+      </c>
+      <c r="J13" s="72">
+        <v>1</v>
+      </c>
+      <c r="K13" s="73">
+        <v>9.25</v>
+      </c>
+      <c r="L13" s="56">
+        <v>5.4</v>
+      </c>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="55"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83">
+        <v>11.5</v>
+      </c>
+      <c r="H14" s="85">
+        <v>374</v>
+      </c>
+      <c r="I14" s="56">
+        <v>46.6</v>
+      </c>
+      <c r="J14" s="72">
+        <v>1</v>
+      </c>
+      <c r="K14" s="73">
+        <v>8.59</v>
+      </c>
+      <c r="L14" s="56">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="55"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="83">
+        <v>11.9</v>
+      </c>
+      <c r="H15" s="85">
+        <v>363</v>
+      </c>
+      <c r="I15" s="56">
+        <v>49.7</v>
+      </c>
+      <c r="J15" s="72">
+        <v>1</v>
+      </c>
+      <c r="K15" s="73">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L15" s="56">
+        <v>4.7</v>
+      </c>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="55"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="83">
+        <v>13.1</v>
+      </c>
+      <c r="H16" s="85">
+        <v>369</v>
+      </c>
+      <c r="I16" s="56">
+        <v>53.8</v>
+      </c>
+      <c r="J16" s="72">
+        <v>1</v>
+      </c>
+      <c r="K16" s="73">
+        <v>7.44</v>
+      </c>
+      <c r="L16" s="56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="55"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="83">
+        <v>12.6</v>
+      </c>
+      <c r="H17" s="85">
+        <v>356</v>
+      </c>
+      <c r="I17" s="56">
+        <v>53.6</v>
+      </c>
+      <c r="J17" s="72">
+        <v>1</v>
+      </c>
+      <c r="K17" s="73">
+        <v>7.46</v>
+      </c>
+      <c r="L17" s="56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="55"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="83">
+        <v>11</v>
+      </c>
+      <c r="H18" s="85">
+        <v>367</v>
+      </c>
+      <c r="I18" s="56">
+        <v>45.4</v>
+      </c>
+      <c r="J18" s="72">
+        <v>1</v>
+      </c>
+      <c r="K18" s="73">
+        <v>8.81</v>
+      </c>
+      <c r="L18" s="56">
+        <v>5.2</v>
+      </c>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="55"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="83">
+        <v>10.8</v>
+      </c>
+      <c r="H19" s="85">
+        <v>378</v>
+      </c>
+      <c r="I19" s="56">
+        <v>43.3</v>
+      </c>
+      <c r="J19" s="72">
+        <v>1</v>
+      </c>
+      <c r="K19" s="73">
+        <v>9.24</v>
+      </c>
+      <c r="L19" s="56">
+        <v>5.4</v>
+      </c>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="55"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="83">
+        <v>13.2</v>
+      </c>
+      <c r="H20" s="85">
+        <v>387</v>
+      </c>
+      <c r="I20" s="56">
+        <v>51.7</v>
+      </c>
+      <c r="J20" s="72">
+        <v>1</v>
+      </c>
+      <c r="K20" s="73">
+        <v>7.74</v>
+      </c>
+      <c r="L20" s="56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="55"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="83">
+        <v>14.5</v>
+      </c>
+      <c r="H21" s="85">
+        <v>355</v>
+      </c>
+      <c r="I21" s="56">
+        <v>61.9</v>
+      </c>
+      <c r="J21" s="72">
+        <v>1</v>
+      </c>
+      <c r="K21" s="73">
+        <v>6.46</v>
+      </c>
+      <c r="L21" s="56">
+        <v>3.8</v>
+      </c>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="55"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="83">
+        <v>10.8</v>
+      </c>
+      <c r="H22" s="85">
+        <v>361</v>
+      </c>
+      <c r="I22" s="56">
+        <v>45.3</v>
+      </c>
+      <c r="J22" s="72">
+        <v>1</v>
+      </c>
+      <c r="K22" s="73">
+        <v>8.83</v>
+      </c>
+      <c r="L22" s="56">
+        <v>5.2</v>
+      </c>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="55"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="83">
+        <v>13.8</v>
+      </c>
+      <c r="H23" s="85">
+        <v>381</v>
+      </c>
+      <c r="I23" s="56">
+        <v>54.9</v>
+      </c>
+      <c r="J23" s="72">
+        <v>1</v>
+      </c>
+      <c r="K23" s="73">
+        <v>7.29</v>
+      </c>
+      <c r="L23" s="56">
+        <v>4.3</v>
+      </c>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="55"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="104"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="72">
+        <v>1</v>
+      </c>
+      <c r="K24" s="73">
+        <v>0</v>
+      </c>
+      <c r="L24" s="56">
+        <v>0</v>
+      </c>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="55"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="104"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="72">
+        <v>0</v>
+      </c>
+      <c r="K25" s="73">
+        <v>0</v>
+      </c>
+      <c r="L25" s="56">
+        <v>0</v>
+      </c>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="55"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="104"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="72">
+        <v>0</v>
+      </c>
+      <c r="K26" s="73">
+        <v>0</v>
+      </c>
+      <c r="L26" s="56">
+        <v>0</v>
+      </c>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="55"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="104"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="72">
+        <v>0</v>
+      </c>
+      <c r="K27" s="73">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0</v>
+      </c>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="55"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="104"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="72">
+        <v>0</v>
+      </c>
+      <c r="K28" s="73">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
+        <v>0</v>
+      </c>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="55"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="104"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="72">
+        <v>0</v>
+      </c>
+      <c r="K29" s="73">
+        <v>0</v>
+      </c>
+      <c r="L29" s="56">
+        <v>0</v>
+      </c>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="55"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="104"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="72">
+        <v>0</v>
+      </c>
+      <c r="K30" s="73">
+        <v>0</v>
+      </c>
+      <c r="L30" s="56">
+        <v>0</v>
+      </c>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="55"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="104"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="72">
+        <v>0</v>
+      </c>
+      <c r="K31" s="73">
+        <v>0</v>
+      </c>
+      <c r="L31" s="56">
+        <v>0</v>
+      </c>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="55"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="72">
+        <v>0</v>
+      </c>
+      <c r="K32" s="73">
+        <v>0</v>
+      </c>
+      <c r="L32" s="56">
+        <v>0</v>
+      </c>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="55"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="72">
+        <v>0</v>
+      </c>
+      <c r="K33" s="73">
+        <v>0</v>
+      </c>
+      <c r="L33" s="56">
+        <v>0</v>
+      </c>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="55"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="72">
+        <v>0</v>
+      </c>
+      <c r="K34" s="73">
+        <v>0</v>
+      </c>
+      <c r="L34" s="56">
+        <v>0</v>
+      </c>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="55"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="72">
+        <v>0</v>
+      </c>
+      <c r="K35" s="73">
+        <v>0</v>
+      </c>
+      <c r="L35" s="56">
+        <v>0</v>
+      </c>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="55"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="72">
+        <v>0</v>
+      </c>
+      <c r="K36" s="73">
+        <v>0</v>
+      </c>
+      <c r="L36" s="56">
+        <v>0</v>
+      </c>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="55"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="108"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="72">
+        <v>0</v>
+      </c>
+      <c r="K37" s="73">
+        <v>0</v>
+      </c>
+      <c r="L37" s="56">
+        <v>0</v>
+      </c>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="55"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="55"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="55"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="55"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="55"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="55"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="55"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="55"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="55"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="55"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE5F01E4A6836D438E48A173EA646965" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="592d422d8a616dc410bec1c111f87299">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="636018d9-4a34-4186-8868-93b3d1d2bbfb" xmlns:ns3="509be607-5cb9-4ff6-8f2b-a49830fd41ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="980d6db85b21d3dcf27729ecad145c32" ns2:_="" ns3:_="">
     <xsd:import namespace="636018d9-4a34-4186-8868-93b3d1d2bbfb"/>
@@ -6053,32 +8314,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1553288E-0F23-412A-BEAB-54B77042EBE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="509be607-5cb9-4ff6-8f2b-a49830fd41ed"/>
-    <ds:schemaRef ds:uri="636018d9-4a34-4186-8868-93b3d1d2bbfb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB7F689-2F00-463D-9C3A-394EB3DFE7E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="636018d9-4a34-4186-8868-93b3d1d2bbfb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="509be607-5cb9-4ff6-8f2b-a49830fd41ed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10281D8D-E076-42BF-81E5-0FF688BB5245}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6095,4 +8351,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB7F689-2F00-463D-9C3A-394EB3DFE7E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1553288E-0F23-412A-BEAB-54B77042EBE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="509be607-5cb9-4ff6-8f2b-a49830fd41ed"/>
+    <ds:schemaRef ds:uri="636018d9-4a34-4186-8868-93b3d1d2bbfb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>